--- a/DIR/Proyecto/P1-e8 DNS/GIC-DIR-Practica1-e8/GIC-DIR-Practica2-e8.xlsx
+++ b/DIR/Proyecto/P1-e8 DNS/GIC-DIR-Practica1-e8/GIC-DIR-Practica2-e8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e8 DNS/GIC-DIR-Practica1-e8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{3195FA0E-FC72-4A89-854D-9E510E18AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{3195FA0E-FC72-4A89-854D-9E510E18AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{666326BD-5E2F-43E1-B90A-9AFBA72C6E5D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="260">
   <si>
     <t>Depts.</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>He configurado el servidor DNS, he añadido en la tabla DNS las IP's con los dominios a las webs y al servidor DNS. He configurado el router LAN con el servidor DNS y el domain-name en todas las pools. Comprobado que se puede acceder a las webs con el dominio desde cualquier terminal interna de la empresa.</t>
+  </si>
+  <si>
+    <t>He configurado en el Router INET de nuevo las direcciones públicas usadas en NAT para usar las primeras direcciones. Además se me había olvidado incluir la IP de la web B.</t>
   </si>
 </sst>
 </file>
@@ -4451,8 +4454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,8 +4720,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="75">
+        <v>45433</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>

--- a/DIR/Proyecto/P1-e8 DNS/GIC-DIR-Practica1-e8/GIC-DIR-Practica2-e8.xlsx
+++ b/DIR/Proyecto/P1-e8 DNS/GIC-DIR-Practica1-e8/GIC-DIR-Practica2-e8.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/692426700a49c2ec/Documentos/2-cuatri/DIR/Proyecto/P1-e8 DNS/GIC-DIR-Practica1-e8/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{3195FA0E-FC72-4A89-854D-9E510E18AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{666326BD-5E2F-43E1-B90A-9AFBA72C6E5D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Genérico" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="WAN" sheetId="5" r:id="rId5"/>
     <sheet name="Routers" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="261">
   <si>
     <t>Depts.</t>
   </si>
@@ -818,12 +812,15 @@
   </si>
   <si>
     <t>He configurado en el Router INET de nuevo las direcciones públicas usadas en NAT para usar las primeras direcciones. Además se me había olvidado incluir la IP de la web B.</t>
+  </si>
+  <si>
+    <t>He añadido un servidor DNS externo a la VLAN de servidores DNS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1854,7 +1851,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56181EE2-1A24-2739-B7C7-DDB8F2EB4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1902,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C2998A1-D500-1534-9D01-79854E30C2F0}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1981,9 +1978,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2021,7 +2018,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2093,7 +2090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2266,30 +2263,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" customWidth="1"/>
-    <col min="16" max="47" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="16" max="47" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>116</v>
       </c>
@@ -2301,7 +2298,7 @@
       <c r="G1" s="93"/>
       <c r="H1" s="93"/>
     </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2334,7 @@
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2408,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2444,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2516,7 +2513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2552,7 +2549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>85</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="G10" s="8"/>
@@ -2608,7 +2605,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2630,7 +2627,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2644,7 +2641,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="94" t="s">
         <v>23</v>
       </c>
@@ -2759,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="97" t="s">
         <v>24</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>25</v>
       </c>
@@ -2804,7 +2801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="100" t="s">
         <v>27</v>
       </c>
@@ -2823,7 +2820,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J17" s="22">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2838,7 +2835,7 @@
       </c>
       <c r="S17" s="33"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J18" s="22">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -2852,7 +2849,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J19" s="23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -2866,7 +2863,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="92" t="s">
         <v>115</v>
       </c>
@@ -2878,7 +2875,7 @@
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>28</v>
       </c>
@@ -2902,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>30</v>
       </c>
@@ -2924,7 +2921,7 @@
       </c>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>32</v>
       </c>
@@ -2944,7 +2941,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>34</v>
       </c>
@@ -2964,7 +2961,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
@@ -2986,7 +2983,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
@@ -3006,7 +3003,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3026,7 +3023,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -3048,7 +3045,7 @@
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -3058,7 +3055,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -3068,10 +3065,10 @@
       <c r="G34" s="47"/>
       <c r="H34" s="48"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D35" s="33"/>
     </row>
-    <row r="38" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="92" t="s">
         <v>114</v>
       </c>
@@ -3083,7 +3080,7 @@
       <c r="G38" s="92"/>
       <c r="H38" s="92"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
@@ -3109,7 +3106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>50</v>
       </c>
@@ -3131,7 +3128,7 @@
       </c>
       <c r="H40" s="42"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>54</v>
       </c>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="H41" s="42"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>56</v>
       </c>
@@ -3171,7 +3168,7 @@
       <c r="G42" s="35"/>
       <c r="H42" s="42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -3189,7 +3186,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>58</v>
       </c>
@@ -3207,7 +3204,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="42"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>59</v>
       </c>
@@ -3225,7 +3222,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="42"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>60</v>
       </c>
@@ -3243,7 +3240,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="42"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>61</v>
       </c>
@@ -3261,7 +3258,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>62</v>
       </c>
@@ -3279,7 +3276,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="42"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>63</v>
       </c>
@@ -3297,7 +3294,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="42"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>64</v>
       </c>
@@ -3315,7 +3312,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="42"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>65</v>
       </c>
@@ -3333,7 +3330,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="42"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>66</v>
       </c>
@@ -3351,7 +3348,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="42"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>67</v>
       </c>
@@ -3369,7 +3366,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="42"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
         <v>68</v>
       </c>
@@ -3387,7 +3384,7 @@
       <c r="G54" s="35"/>
       <c r="H54" s="42"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
         <v>69</v>
       </c>
@@ -3406,7 +3403,7 @@
       <c r="H55" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
+  <sortState ref="A3:H11">
     <sortCondition descending="1" ref="E3:E11"/>
   </sortState>
   <mergeCells count="7">
@@ -3425,22 +3422,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
         <v>50</v>
       </c>
@@ -3474,7 +3471,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>74</v>
       </c>
@@ -3491,7 +3488,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>75</v>
       </c>
@@ -3508,7 +3505,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -3525,7 +3522,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>77</v>
       </c>
@@ -3538,7 +3535,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>78</v>
       </c>
@@ -3551,7 +3548,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
@@ -3564,7 +3561,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>80</v>
       </c>
@@ -3577,7 +3574,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>81</v>
       </c>
@@ -3594,7 +3591,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>82</v>
       </c>
@@ -3611,7 +3608,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="54"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>83</v>
       </c>
@@ -3628,12 +3625,12 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="103" t="s">
         <v>54</v>
       </c>
@@ -3667,7 +3664,7 @@
       <c r="H17" s="61"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>74</v>
       </c>
@@ -3684,7 +3681,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>75</v>
       </c>
@@ -3701,7 +3698,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
@@ -3714,7 +3711,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
@@ -3727,7 +3724,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>78</v>
       </c>
@@ -3740,7 +3737,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>79</v>
       </c>
@@ -3753,7 +3750,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>80</v>
       </c>
@@ -3766,7 +3763,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>81</v>
       </c>
@@ -3783,7 +3780,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -3800,7 +3797,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>83</v>
       </c>
@@ -3817,7 +3814,7 @@
       <c r="H27" s="58"/>
       <c r="I27" s="58"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A29" s="103" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +3848,7 @@
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>74</v>
       </c>
@@ -3868,7 +3865,7 @@
       <c r="H31" s="34"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>75</v>
       </c>
@@ -3881,7 +3878,7 @@
       <c r="H32" s="34"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>76</v>
       </c>
@@ -3894,7 +3891,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>77</v>
       </c>
@@ -3907,7 +3904,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>78</v>
       </c>
@@ -3920,7 +3917,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>79</v>
       </c>
@@ -3933,7 +3930,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>80</v>
       </c>
@@ -3950,7 +3947,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>81</v>
       </c>
@@ -3967,7 +3964,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
@@ -3984,7 +3981,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="54"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>83</v>
       </c>
@@ -4001,7 +3998,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
         <v>63</v>
       </c>
@@ -4014,7 +4011,7 @@
       <c r="H42" s="103"/>
       <c r="I42" s="103"/>
     </row>
-    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
         <v>73</v>
       </c>
@@ -4035,7 +4032,7 @@
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>74</v>
       </c>
@@ -4052,7 +4049,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -4065,7 +4062,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>76</v>
       </c>
@@ -4078,7 +4075,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>77</v>
       </c>
@@ -4091,7 +4088,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>78</v>
       </c>
@@ -4104,7 +4101,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="42"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>79</v>
       </c>
@@ -4117,7 +4114,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="42"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>80</v>
       </c>
@@ -4134,7 +4131,7 @@
       <c r="H50" s="36"/>
       <c r="I50" s="42"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>81</v>
       </c>
@@ -4151,7 +4148,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>82</v>
       </c>
@@ -4168,7 +4165,7 @@
       <c r="H52" s="56"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
         <v>83</v>
       </c>
@@ -4198,20 +4195,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -4228,7 +4225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>50</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>54</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>56</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
@@ -4284,7 +4281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>58</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>59</v>
       </c>
@@ -4312,7 +4309,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>60</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>61</v>
       </c>
@@ -4340,7 +4337,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>62</v>
       </c>
@@ -4354,7 +4351,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>63</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -4382,7 +4379,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>66</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>68</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>196</v>
       </c>
@@ -4420,7 +4417,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>84</v>
       </c>
@@ -4430,7 +4427,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>88</v>
       </c>
@@ -4440,7 +4437,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048576" s="64"/>
     </row>
   </sheetData>
@@ -4451,24 +4448,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.45" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>96</v>
       </c>
@@ -4476,13 +4473,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>45392</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
         <v>45392</v>
       </c>
@@ -4498,7 +4495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="71">
         <v>45392</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="75">
         <v>45393</v>
       </c>
@@ -4514,13 +4511,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
       <c r="B8" s="76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>45397</v>
       </c>
@@ -4528,7 +4525,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>45397</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="75">
         <v>45397</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>45397</v>
       </c>
@@ -4552,7 +4549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>45398</v>
       </c>
@@ -4560,7 +4557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
         <v>45398</v>
       </c>
@@ -4568,7 +4565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="75">
         <v>45398</v>
       </c>
@@ -4576,13 +4573,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
         <v>45400</v>
       </c>
@@ -4590,7 +4587,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
         <v>45408</v>
       </c>
@@ -4598,7 +4595,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>45409</v>
       </c>
@@ -4606,7 +4603,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
         <v>45414</v>
       </c>
@@ -4614,13 +4611,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
       <c r="B21" s="76" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="75">
         <v>45414</v>
       </c>
@@ -4628,7 +4625,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="75">
         <v>45419</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="75">
         <v>45419</v>
       </c>
@@ -4644,7 +4641,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="75">
         <v>45420</v>
       </c>
@@ -4652,7 +4649,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
         <v>45420</v>
       </c>
@@ -4660,13 +4657,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A27" s="75"/>
       <c r="B27" s="76" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="75">
         <v>45421</v>
       </c>
@@ -4674,7 +4671,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="75">
         <v>45424</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
         <v>45424</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="75">
         <v>45425</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A32" s="75">
         <v>45426</v>
       </c>
@@ -4706,13 +4703,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="25.9" x14ac:dyDescent="0.3">
       <c r="A33" s="75"/>
       <c r="B33" s="76" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
         <v>45427</v>
       </c>
@@ -4720,7 +4717,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="75">
         <v>45433</v>
       </c>
@@ -4728,16 +4725,21 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="75">
+        <v>45439</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="75"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="75"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="75"/>
     </row>
   </sheetData>
@@ -4747,19 +4749,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
         <v>120</v>
@@ -4800,7 +4802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="84" t="s">
         <v>132</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="84" t="s">
         <v>137</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="84" t="s">
         <v>142</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="84" t="s">
         <v>147</v>
       </c>
@@ -4880,7 +4882,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="86" t="s">
         <v>152</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:7" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4908,23 +4910,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>84</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>91</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
         <v>207</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
         <v>208</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>209</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
         <v>210</v>
       </c>
@@ -5054,7 +5056,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="89" t="s">
         <v>211</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="89" t="s">
         <v>212</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
         <v>213</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="89" t="s">
         <v>214</v>
       </c>
@@ -5134,7 +5136,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
         <v>215</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>216</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
         <v>217</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
         <v>218</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
         <v>219</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="89" t="s">
         <v>220</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="89" t="s">
         <v>203</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="89" t="s">
         <v>204</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A23" s="103" t="s">
         <v>196</v>
       </c>
@@ -5324,7 +5326,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="89" t="s">
         <v>234</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
         <v>235</v>
       </c>
@@ -5364,7 +5366,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="89" t="s">
         <v>236</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>237</v>
       </c>
@@ -5404,7 +5406,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="89" t="s">
         <v>238</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>233</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="89" t="s">
         <v>234</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="89" t="s">
         <v>238</v>
       </c>
